--- a/Statystyki_2018/Template/oktkr_.xlsx
+++ b/Statystyki_2018/Template/oktkr_.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Wykaz wniosków złożonych przez kuratorów sądowych</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>Sokołowski Michał</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
   <si>
     <t xml:space="preserve">Wnioski rozpatrzone  przez kuratorów w przedmiocie:</t>
@@ -1153,7 +1156,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="122">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment horizontal="left" vertical="center"/>
@@ -1163,6 +1166,9 @@
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" xfId="0">
       <alignment vertical="center" wrapText="1" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -1793,7 +1799,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:U11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
@@ -1808,502 +1814,393 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75">
-      <c r="D1" s="4"/>
+      <c r="D1" s="5"/>
     </row>
     <row r="2" ht="16.5">
-      <c r="D2" s="5"/>
+      <c r="D2" s="6"/>
     </row>
     <row r="3">
-      <c r="A3" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="25" t="s">
+      <c r="A3" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="25" t="s">
+      <c r="B3" s="21"/>
+      <c r="C3" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="25" t="s">
+      <c r="D3" s="27"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="N3" s="26"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="8" t="s">
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="Q3" s="16" t="s">
+      <c r="N3" s="27"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="9" t="s">
         <v>42</v>
+      </c>
+      <c r="Q3" s="17" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="4" ht="15.75">
-      <c r="A4" s="21"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q4" s="17"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q4" s="18"/>
     </row>
     <row r="5" ht="21" customHeight="1">
-      <c r="A5" s="21"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="32" t="s">
+      <c r="A5" s="22"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="33"/>
-      <c r="F5" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" s="34" t="s">
+      <c r="D5" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="H5" s="35"/>
-      <c r="I5" s="36" t="s">
+      <c r="E5" s="34"/>
+      <c r="F5" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="J5" s="37"/>
-      <c r="K5" s="36" t="s">
+      <c r="H5" s="36"/>
+      <c r="I5" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="L5" s="38"/>
-      <c r="M5" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="N5" s="13"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="17"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="L5" s="39"/>
+      <c r="M5" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="N5" s="14"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="18"/>
     </row>
     <row r="6" ht="15.75">
-      <c r="A6" s="23"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="113"/>
-      <c r="D6" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="6" t="s">
+      <c r="A6" s="24"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="114"/>
+      <c r="D6" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="113"/>
-      <c r="G6" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" s="6" t="s">
+      <c r="E6" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="114"/>
+      <c r="G6" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="I6" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="J6" s="6" t="s">
+      <c r="H6" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="K6" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="L6" s="6" t="s">
+      <c r="J6" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="M6" s="113"/>
-      <c r="N6" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="O6" s="9" t="s">
+      <c r="L6" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="M6" s="114"/>
+      <c r="N6" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="17"/>
+      <c r="O6" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="18"/>
     </row>
     <row r="7" ht="15.75">
-      <c r="A7" s="18">
-        <v>0</v>
-      </c>
-      <c r="B7" s="111"/>
-      <c r="C7" s="114">
+      <c r="A7" s="19">
+        <v>0</v>
+      </c>
+      <c r="B7" s="112"/>
+      <c r="C7" s="115">
         <v>1</v>
       </c>
-      <c r="D7" s="115">
+      <c r="D7" s="116">
         <v>2</v>
       </c>
-      <c r="E7" s="115">
+      <c r="E7" s="116">
         <v>3</v>
       </c>
-      <c r="F7" s="115">
+      <c r="F7" s="116">
         <v>4</v>
       </c>
-      <c r="G7" s="115">
+      <c r="G7" s="116">
         <v>5</v>
       </c>
-      <c r="H7" s="115">
+      <c r="H7" s="116">
         <v>6</v>
       </c>
-      <c r="I7" s="115">
+      <c r="I7" s="116">
         <v>7</v>
       </c>
-      <c r="J7" s="115">
+      <c r="J7" s="116">
         <v>8</v>
       </c>
-      <c r="K7" s="115">
+      <c r="K7" s="116">
         <v>9</v>
       </c>
-      <c r="L7" s="115">
+      <c r="L7" s="116">
         <v>10</v>
       </c>
-      <c r="M7" s="115">
+      <c r="M7" s="116">
         <v>11</v>
       </c>
-      <c r="N7" s="115">
+      <c r="N7" s="116">
         <v>12</v>
       </c>
-      <c r="O7" s="116">
+      <c r="O7" s="117">
         <v>13</v>
       </c>
-      <c r="P7" s="112">
+      <c r="P7" s="113">
         <v>14</v>
       </c>
-      <c r="Q7" s="7">
+      <c r="Q7" s="8">
         <v>15</v>
       </c>
     </row>
     <row r="8" ht="15.75">
-      <c r="A8" s="117">
+      <c r="A8" s="118">
         <v>1</v>
       </c>
-      <c r="B8" s="118" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="119">
-        <v>0</v>
-      </c>
-      <c r="D8" s="119">
-        <v>0</v>
-      </c>
-      <c r="E8" s="119">
-        <v>0</v>
-      </c>
-      <c r="F8" s="119">
-        <v>0</v>
-      </c>
-      <c r="G8" s="119">
-        <v>0</v>
-      </c>
-      <c r="H8" s="119">
-        <v>0</v>
-      </c>
-      <c r="I8" s="119">
-        <v>0</v>
-      </c>
-      <c r="J8" s="119">
-        <v>0</v>
-      </c>
-      <c r="K8" s="119">
-        <v>0</v>
-      </c>
-      <c r="L8" s="119">
-        <v>0</v>
-      </c>
-      <c r="M8" s="119">
-        <v>0</v>
-      </c>
-      <c r="N8" s="119">
-        <v>0</v>
-      </c>
-      <c r="O8" s="119">
-        <v>0</v>
-      </c>
-      <c r="P8" s="119">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="119">
+      <c r="B8" s="119" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="120">
+        <v>0</v>
+      </c>
+      <c r="D8" s="120">
+        <v>0</v>
+      </c>
+      <c r="E8" s="120">
+        <v>0</v>
+      </c>
+      <c r="F8" s="120">
+        <v>0</v>
+      </c>
+      <c r="G8" s="120">
+        <v>0</v>
+      </c>
+      <c r="H8" s="120">
+        <v>0</v>
+      </c>
+      <c r="I8" s="120">
+        <v>0</v>
+      </c>
+      <c r="J8" s="120">
+        <v>0</v>
+      </c>
+      <c r="K8" s="120">
+        <v>0</v>
+      </c>
+      <c r="L8" s="120">
+        <v>0</v>
+      </c>
+      <c r="M8" s="120">
+        <v>0</v>
+      </c>
+      <c r="N8" s="120">
+        <v>0</v>
+      </c>
+      <c r="O8" s="120">
+        <v>0</v>
+      </c>
+      <c r="P8" s="120">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="120">
         <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="118">
+      <c r="C9" s="119">
         <v>2</v>
       </c>
-      <c r="B9" s="118" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="119">
-        <v>0</v>
-      </c>
-      <c r="D9" s="119">
-        <v>0</v>
-      </c>
-      <c r="E9" s="119">
-        <v>0</v>
-      </c>
-      <c r="F9" s="119">
-        <v>0</v>
-      </c>
-      <c r="G9" s="119">
-        <v>0</v>
-      </c>
-      <c r="H9" s="119">
-        <v>0</v>
-      </c>
-      <c r="I9" s="119">
-        <v>0</v>
-      </c>
-      <c r="J9" s="119">
-        <v>0</v>
-      </c>
-      <c r="K9" s="119">
-        <v>0</v>
-      </c>
-      <c r="L9" s="119">
-        <v>0</v>
-      </c>
-      <c r="M9" s="119">
-        <v>0</v>
-      </c>
-      <c r="N9" s="119">
-        <v>0</v>
-      </c>
-      <c r="O9" s="119">
-        <v>0</v>
-      </c>
-      <c r="P9" s="119">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="119">
+      <c r="D9" s="119" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="120">
+        <v>0</v>
+      </c>
+      <c r="F9" s="120">
+        <v>0</v>
+      </c>
+      <c r="G9" s="120">
+        <v>0</v>
+      </c>
+      <c r="H9" s="120">
+        <v>0</v>
+      </c>
+      <c r="I9" s="120">
+        <v>0</v>
+      </c>
+      <c r="J9" s="120">
+        <v>0</v>
+      </c>
+      <c r="K9" s="120">
+        <v>0</v>
+      </c>
+      <c r="L9" s="120">
+        <v>0</v>
+      </c>
+      <c r="M9" s="120">
+        <v>0</v>
+      </c>
+      <c r="N9" s="120">
+        <v>0</v>
+      </c>
+      <c r="O9" s="120">
+        <v>0</v>
+      </c>
+      <c r="P9" s="120">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="120">
+        <v>0</v>
+      </c>
+      <c r="R9" s="120">
+        <v>0</v>
+      </c>
+      <c r="S9" s="120">
         <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="118">
+      <c r="E10" s="119">
         <v>3</v>
       </c>
-      <c r="B10" s="118" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="119">
-        <v>0</v>
-      </c>
-      <c r="D10" s="119">
-        <v>0</v>
-      </c>
-      <c r="E10" s="119">
-        <v>0</v>
-      </c>
-      <c r="F10" s="119">
-        <v>0</v>
-      </c>
-      <c r="G10" s="119">
-        <v>0</v>
-      </c>
-      <c r="H10" s="119">
-        <v>0</v>
-      </c>
-      <c r="I10" s="119">
-        <v>0</v>
-      </c>
-      <c r="J10" s="119">
-        <v>0</v>
-      </c>
-      <c r="K10" s="119">
-        <v>0</v>
-      </c>
-      <c r="L10" s="119">
-        <v>0</v>
-      </c>
-      <c r="M10" s="119">
-        <v>0</v>
-      </c>
-      <c r="N10" s="119">
-        <v>0</v>
-      </c>
-      <c r="O10" s="119">
-        <v>0</v>
-      </c>
-      <c r="P10" s="119">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="119">
+      <c r="F10" s="119" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="120">
+        <v>0</v>
+      </c>
+      <c r="H10" s="120">
+        <v>0</v>
+      </c>
+      <c r="I10" s="120">
+        <v>0</v>
+      </c>
+      <c r="J10" s="120">
+        <v>0</v>
+      </c>
+      <c r="K10" s="120">
+        <v>0</v>
+      </c>
+      <c r="L10" s="120">
+        <v>0</v>
+      </c>
+      <c r="M10" s="120">
+        <v>0</v>
+      </c>
+      <c r="N10" s="120">
+        <v>0</v>
+      </c>
+      <c r="O10" s="120">
+        <v>0</v>
+      </c>
+      <c r="P10" s="120">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="120">
+        <v>0</v>
+      </c>
+      <c r="R10" s="120">
+        <v>0</v>
+      </c>
+      <c r="S10" s="120">
+        <v>0</v>
+      </c>
+      <c r="T10" s="120">
+        <v>0</v>
+      </c>
+      <c r="U10" s="120">
         <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="118">
-        <v>4</v>
-      </c>
-      <c r="B11" s="118" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="119">
-        <v>0</v>
-      </c>
-      <c r="D11" s="119">
-        <v>0</v>
-      </c>
-      <c r="E11" s="119">
-        <v>0</v>
-      </c>
-      <c r="F11" s="119">
-        <v>1</v>
-      </c>
-      <c r="G11" s="119">
-        <v>1</v>
-      </c>
-      <c r="H11" s="119">
-        <v>0</v>
-      </c>
-      <c r="I11" s="119">
-        <v>0</v>
-      </c>
-      <c r="J11" s="119">
-        <v>0</v>
-      </c>
-      <c r="K11" s="119">
-        <v>0</v>
-      </c>
-      <c r="L11" s="119">
-        <v>0</v>
-      </c>
-      <c r="M11" s="119">
-        <v>0</v>
-      </c>
-      <c r="N11" s="119">
-        <v>0</v>
-      </c>
-      <c r="O11" s="119">
-        <v>0</v>
-      </c>
-      <c r="P11" s="119">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="118">
-        <v>5</v>
-      </c>
-      <c r="B12" s="118" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="119">
-        <v>0</v>
-      </c>
-      <c r="D12" s="119">
-        <v>0</v>
-      </c>
-      <c r="E12" s="119">
-        <v>0</v>
-      </c>
-      <c r="F12" s="119">
-        <v>2</v>
-      </c>
-      <c r="G12" s="119">
-        <v>2</v>
-      </c>
-      <c r="H12" s="119">
-        <v>0</v>
-      </c>
-      <c r="I12" s="119">
-        <v>0</v>
-      </c>
-      <c r="J12" s="119">
-        <v>0</v>
-      </c>
-      <c r="K12" s="119">
-        <v>0</v>
-      </c>
-      <c r="L12" s="119">
-        <v>0</v>
-      </c>
-      <c r="M12" s="119">
-        <v>0</v>
-      </c>
-      <c r="N12" s="119">
-        <v>0</v>
-      </c>
-      <c r="O12" s="119">
-        <v>0</v>
-      </c>
-      <c r="P12" s="119">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="118">
-        <v>6</v>
-      </c>
-      <c r="B13" s="118" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="119">
-        <v>0</v>
-      </c>
-      <c r="D13" s="119">
-        <v>0</v>
-      </c>
-      <c r="E13" s="119">
-        <v>0</v>
-      </c>
-      <c r="F13" s="119">
-        <v>0</v>
-      </c>
-      <c r="G13" s="119">
-        <v>0</v>
-      </c>
-      <c r="H13" s="119">
-        <v>0</v>
-      </c>
-      <c r="I13" s="119">
-        <v>0</v>
-      </c>
-      <c r="J13" s="119">
-        <v>0</v>
-      </c>
-      <c r="K13" s="119">
-        <v>0</v>
-      </c>
-      <c r="L13" s="119">
-        <v>0</v>
-      </c>
-      <c r="M13" s="119">
-        <v>0</v>
-      </c>
-      <c r="N13" s="119">
-        <v>0</v>
-      </c>
-      <c r="O13" s="119">
-        <v>0</v>
-      </c>
-      <c r="P13" s="119">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="119">
-        <v>0</v>
+      <c r="A11" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="120" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N11" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="O11" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="P11" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -2332,7 +2229,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A8" sqref="A8:XFD16"/>
@@ -2354,257 +2251,308 @@
       <c r="P2" s="1"/>
     </row>
     <row r="3" ht="16.5">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="55"/>
-      <c r="O3" s="55"/>
-      <c r="P3" s="55"/>
-      <c r="Q3" s="55"/>
-      <c r="R3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="56"/>
+      <c r="R3" s="57"/>
     </row>
     <row r="4">
-      <c r="A4" s="49"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="57" t="s">
+      <c r="A4" s="50"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="58"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="63" t="s">
+      <c r="D4" s="59"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="63" t="s">
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="58"/>
-      <c r="O4" s="59"/>
-      <c r="P4" s="46" t="s">
+      <c r="N4" s="59"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="42" t="s">
+      <c r="Q4" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="R4" s="67" t="s">
+      <c r="R4" s="68" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" ht="17.25" customHeight="1">
-      <c r="A5" s="49"/>
-      <c r="B5" s="52"/>
-      <c r="C5" s="60" t="s">
+      <c r="A5" s="50"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="61"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="62"/>
-      <c r="M5" s="64"/>
-      <c r="N5" s="61"/>
-      <c r="O5" s="62"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="68"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="62"/>
+      <c r="O5" s="63"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="67"/>
+      <c r="R5" s="69"/>
     </row>
     <row r="6" ht="205.5" customHeight="1">
-      <c r="A6" s="49"/>
-      <c r="B6" s="52"/>
-      <c r="C6" s="44" t="s">
+      <c r="A6" s="50"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="42" t="s">
+      <c r="E6" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="46" t="s">
+      <c r="F6" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="44" t="s">
+      <c r="G6" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="44" t="s">
+      <c r="H6" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="44" t="s">
+      <c r="I6" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="44" t="s">
+      <c r="J6" s="45" t="s">
         <v>18</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="42" t="s">
+      <c r="L6" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="46" t="s">
+      <c r="M6" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="N6" s="44" t="s">
+      <c r="N6" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="O6" s="42" t="s">
+      <c r="O6" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="P6" s="65"/>
-      <c r="Q6" s="66"/>
-      <c r="R6" s="68"/>
+      <c r="P6" s="66"/>
+      <c r="Q6" s="67"/>
+      <c r="R6" s="69"/>
     </row>
     <row r="7" ht="37.5">
-      <c r="A7" s="50"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
+      <c r="A7" s="51"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
       <c r="K7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="43"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="45"/>
-      <c r="O7" s="43"/>
-      <c r="P7" s="47"/>
-      <c r="Q7" s="43"/>
-      <c r="R7" s="69"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="48"/>
+      <c r="Q7" s="44"/>
+      <c r="R7" s="70"/>
     </row>
     <row r="8" ht="15.75">
-      <c r="A8" s="120">
+      <c r="A8" s="121">
         <v>1</v>
       </c>
-      <c r="B8" s="118" t="s">
+      <c r="B8" s="119" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="119">
-        <v>0</v>
-      </c>
-      <c r="D8" s="119">
-        <v>0</v>
-      </c>
-      <c r="E8" s="119">
-        <v>0</v>
-      </c>
-      <c r="F8" s="119">
-        <v>0</v>
-      </c>
-      <c r="G8" s="119">
-        <v>0</v>
-      </c>
-      <c r="H8" s="119">
-        <v>0</v>
-      </c>
-      <c r="I8" s="119">
-        <v>0</v>
-      </c>
-      <c r="J8" s="119">
-        <v>0</v>
-      </c>
-      <c r="K8" s="119">
-        <v>0</v>
-      </c>
-      <c r="L8" s="119">
-        <v>0</v>
-      </c>
-      <c r="M8" s="119">
-        <v>0</v>
-      </c>
-      <c r="N8" s="119">
-        <v>0</v>
-      </c>
-      <c r="O8" s="119">
-        <v>0</v>
-      </c>
-      <c r="P8" s="119">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="119">
+      <c r="C8" s="120">
+        <v>0</v>
+      </c>
+      <c r="D8" s="120">
+        <v>0</v>
+      </c>
+      <c r="E8" s="120">
+        <v>0</v>
+      </c>
+      <c r="F8" s="120">
+        <v>0</v>
+      </c>
+      <c r="G8" s="120">
+        <v>0</v>
+      </c>
+      <c r="H8" s="120">
+        <v>0</v>
+      </c>
+      <c r="I8" s="120">
+        <v>0</v>
+      </c>
+      <c r="J8" s="120">
+        <v>0</v>
+      </c>
+      <c r="K8" s="120">
+        <v>0</v>
+      </c>
+      <c r="L8" s="120">
+        <v>0</v>
+      </c>
+      <c r="M8" s="120">
+        <v>0</v>
+      </c>
+      <c r="N8" s="120">
+        <v>0</v>
+      </c>
+      <c r="O8" s="120">
+        <v>0</v>
+      </c>
+      <c r="P8" s="120">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="120">
         <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="120">
+      <c r="A9" s="4"/>
+      <c r="C9" s="119">
         <v>2</v>
       </c>
-      <c r="B9" s="118" t="s">
+      <c r="D9" s="119" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="119">
-        <v>0</v>
-      </c>
-      <c r="D9" s="119">
-        <v>0</v>
-      </c>
-      <c r="E9" s="119">
-        <v>0</v>
-      </c>
-      <c r="F9" s="119">
-        <v>0</v>
-      </c>
-      <c r="G9" s="119">
-        <v>0</v>
-      </c>
-      <c r="H9" s="119">
-        <v>0</v>
-      </c>
-      <c r="I9" s="119">
-        <v>0</v>
-      </c>
-      <c r="J9" s="119">
-        <v>0</v>
-      </c>
-      <c r="K9" s="119">
-        <v>0</v>
-      </c>
-      <c r="L9" s="119">
-        <v>0</v>
-      </c>
-      <c r="M9" s="119">
-        <v>0</v>
-      </c>
-      <c r="N9" s="119">
-        <v>0</v>
-      </c>
-      <c r="O9" s="119">
-        <v>0</v>
-      </c>
-      <c r="P9" s="119">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="119">
-        <v>0</v>
+      <c r="E9" s="120">
+        <v>0</v>
+      </c>
+      <c r="F9" s="120">
+        <v>0</v>
+      </c>
+      <c r="G9" s="120">
+        <v>0</v>
+      </c>
+      <c r="H9" s="120">
+        <v>0</v>
+      </c>
+      <c r="I9" s="120">
+        <v>0</v>
+      </c>
+      <c r="J9" s="120">
+        <v>0</v>
+      </c>
+      <c r="K9" s="120">
+        <v>0</v>
+      </c>
+      <c r="L9" s="120">
+        <v>0</v>
+      </c>
+      <c r="M9" s="120">
+        <v>0</v>
+      </c>
+      <c r="N9" s="120">
+        <v>0</v>
+      </c>
+      <c r="O9" s="120">
+        <v>0</v>
+      </c>
+      <c r="P9" s="120">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="120">
+        <v>0</v>
+      </c>
+      <c r="R9" s="120">
+        <v>0</v>
+      </c>
+      <c r="S9" s="120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="120" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N10" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="O10" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="P10" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -2643,7 +2591,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AH15"/>
+  <dimension ref="A1:AR15"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="AI3" sqref="A3:XFD3"/>
@@ -2666,953 +2614,1054 @@
       <c r="P2" s="1"/>
     </row>
     <row r="3" ht="16.5" customHeight="1">
-      <c r="A3" s="105" t="s">
+      <c r="A3" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="106" t="s">
+      <c r="B3" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="89" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="89"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="89"/>
-      <c r="P3" s="89"/>
-      <c r="Q3" s="89"/>
-      <c r="R3" s="89"/>
-      <c r="S3" s="89"/>
-      <c r="T3" s="89"/>
-      <c r="U3" s="89"/>
-      <c r="V3" s="89"/>
-      <c r="W3" s="89"/>
-      <c r="X3" s="89"/>
-      <c r="Y3" s="89"/>
-      <c r="Z3" s="89"/>
-      <c r="AA3" s="89"/>
-      <c r="AB3" s="89"/>
-      <c r="AC3" s="89"/>
-      <c r="AD3" s="89"/>
-      <c r="AE3" s="89"/>
-      <c r="AF3" s="89"/>
-      <c r="AG3" s="89"/>
-      <c r="AH3" s="90"/>
+      <c r="C3" s="90" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="90"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="90"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="90"/>
+      <c r="R3" s="90"/>
+      <c r="S3" s="90"/>
+      <c r="T3" s="90"/>
+      <c r="U3" s="90"/>
+      <c r="V3" s="90"/>
+      <c r="W3" s="90"/>
+      <c r="X3" s="90"/>
+      <c r="Y3" s="90"/>
+      <c r="Z3" s="90"/>
+      <c r="AA3" s="90"/>
+      <c r="AB3" s="90"/>
+      <c r="AC3" s="90"/>
+      <c r="AD3" s="90"/>
+      <c r="AE3" s="90"/>
+      <c r="AF3" s="90"/>
+      <c r="AG3" s="90"/>
+      <c r="AH3" s="91"/>
     </row>
     <row r="4">
-      <c r="A4" s="107"/>
-      <c r="B4" s="108"/>
-      <c r="C4" s="82" t="s">
+      <c r="A4" s="108"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="81" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="82"/>
-      <c r="K4" s="82"/>
-      <c r="L4" s="82"/>
-      <c r="M4" s="82"/>
-      <c r="N4" s="82"/>
-      <c r="O4" s="82"/>
-      <c r="P4" s="82"/>
-      <c r="Q4" s="82"/>
-      <c r="R4" s="82"/>
-      <c r="S4" s="82"/>
-      <c r="T4" s="82"/>
-      <c r="U4" s="82"/>
-      <c r="V4" s="83"/>
-      <c r="W4" s="81" t="s">
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="X4" s="82"/>
-      <c r="Y4" s="82"/>
-      <c r="Z4" s="82"/>
-      <c r="AA4" s="82"/>
-      <c r="AB4" s="83"/>
-      <c r="AC4" s="91" t="s">
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="83"/>
+      <c r="N4" s="83"/>
+      <c r="O4" s="83"/>
+      <c r="P4" s="83"/>
+      <c r="Q4" s="83"/>
+      <c r="R4" s="83"/>
+      <c r="S4" s="83"/>
+      <c r="T4" s="83"/>
+      <c r="U4" s="83"/>
+      <c r="V4" s="84"/>
+      <c r="W4" s="82" t="s">
+        <v>28</v>
+      </c>
+      <c r="X4" s="83"/>
+      <c r="Y4" s="83"/>
+      <c r="Z4" s="83"/>
+      <c r="AA4" s="83"/>
+      <c r="AB4" s="84"/>
+      <c r="AC4" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="AD4" s="79"/>
-      <c r="AE4" s="78" t="s">
+      <c r="AD4" s="80"/>
+      <c r="AE4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="AF4" s="80"/>
-      <c r="AG4" s="97" t="s">
+      <c r="AF4" s="81"/>
+      <c r="AG4" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="AH4" s="98"/>
+      <c r="AH4" s="99"/>
     </row>
     <row r="5" ht="17.25" customHeight="1">
-      <c r="A5" s="107"/>
-      <c r="B5" s="108"/>
-      <c r="C5" s="103" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="103"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="103"/>
-      <c r="H5" s="104"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="85"/>
-      <c r="K5" s="85"/>
-      <c r="L5" s="85"/>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="85"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="85"/>
-      <c r="T5" s="85"/>
-      <c r="U5" s="85"/>
-      <c r="V5" s="86"/>
-      <c r="W5" s="84"/>
-      <c r="X5" s="85"/>
-      <c r="Y5" s="85"/>
-      <c r="Z5" s="85"/>
-      <c r="AA5" s="85"/>
-      <c r="AB5" s="86"/>
-      <c r="AC5" s="92"/>
-      <c r="AD5" s="93"/>
-      <c r="AE5" s="95"/>
-      <c r="AF5" s="96"/>
-      <c r="AG5" s="99"/>
-      <c r="AH5" s="100"/>
+      <c r="A5" s="108"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="104" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="104"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="104"/>
+      <c r="G5" s="104"/>
+      <c r="H5" s="105"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="86"/>
+      <c r="K5" s="86"/>
+      <c r="L5" s="86"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="86"/>
+      <c r="T5" s="86"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="87"/>
+      <c r="W5" s="85"/>
+      <c r="X5" s="86"/>
+      <c r="Y5" s="86"/>
+      <c r="Z5" s="86"/>
+      <c r="AA5" s="86"/>
+      <c r="AB5" s="87"/>
+      <c r="AC5" s="93"/>
+      <c r="AD5" s="94"/>
+      <c r="AE5" s="96"/>
+      <c r="AF5" s="97"/>
+      <c r="AG5" s="100"/>
+      <c r="AH5" s="101"/>
     </row>
     <row r="6" ht="99" customHeight="1">
-      <c r="A6" s="107"/>
-      <c r="B6" s="108"/>
-      <c r="C6" s="91" t="s">
+      <c r="A6" s="108"/>
+      <c r="B6" s="109"/>
+      <c r="C6" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="79"/>
-      <c r="E6" s="78" t="s">
+      <c r="D6" s="80"/>
+      <c r="E6" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="79"/>
-      <c r="G6" s="78" t="s">
+      <c r="F6" s="80"/>
+      <c r="G6" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="80"/>
-      <c r="I6" s="74" t="s">
+      <c r="H6" s="81"/>
+      <c r="I6" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="75"/>
-      <c r="K6" s="70" t="s">
+      <c r="J6" s="76"/>
+      <c r="K6" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="75"/>
-      <c r="M6" s="70" t="s">
+      <c r="L6" s="76"/>
+      <c r="M6" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="N6" s="75"/>
-      <c r="O6" s="70" t="s">
+      <c r="N6" s="76"/>
+      <c r="O6" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="P6" s="75"/>
-      <c r="Q6" s="70" t="s">
+      <c r="P6" s="76"/>
+      <c r="Q6" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="R6" s="75"/>
-      <c r="S6" s="70" t="s">
+      <c r="R6" s="76"/>
+      <c r="S6" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="T6" s="75"/>
-      <c r="U6" s="70" t="s">
+      <c r="T6" s="76"/>
+      <c r="U6" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="V6" s="71"/>
-      <c r="W6" s="74" t="s">
+      <c r="V6" s="72"/>
+      <c r="W6" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="X6" s="75"/>
-      <c r="Y6" s="70" t="s">
+      <c r="X6" s="76"/>
+      <c r="Y6" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="Z6" s="75"/>
-      <c r="AA6" s="70" t="s">
+      <c r="Z6" s="76"/>
+      <c r="AA6" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="AB6" s="71"/>
-      <c r="AC6" s="92"/>
-      <c r="AD6" s="93"/>
-      <c r="AE6" s="95"/>
-      <c r="AF6" s="96"/>
-      <c r="AG6" s="99"/>
-      <c r="AH6" s="100"/>
+      <c r="AB6" s="72"/>
+      <c r="AC6" s="93"/>
+      <c r="AD6" s="94"/>
+      <c r="AE6" s="96"/>
+      <c r="AF6" s="97"/>
+      <c r="AG6" s="100"/>
+      <c r="AH6" s="101"/>
     </row>
     <row r="7" ht="25.5" customHeight="1">
-      <c r="A7" s="107"/>
-      <c r="B7" s="108"/>
-      <c r="C7" s="94"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="77"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="77"/>
-      <c r="M7" s="72"/>
-      <c r="N7" s="77"/>
-      <c r="O7" s="72"/>
-      <c r="P7" s="77"/>
-      <c r="Q7" s="72"/>
-      <c r="R7" s="77"/>
-      <c r="S7" s="87"/>
-      <c r="T7" s="88"/>
-      <c r="U7" s="72"/>
-      <c r="V7" s="73"/>
-      <c r="W7" s="76"/>
-      <c r="X7" s="77"/>
-      <c r="Y7" s="72"/>
-      <c r="Z7" s="77"/>
-      <c r="AA7" s="72"/>
-      <c r="AB7" s="73"/>
-      <c r="AC7" s="94"/>
-      <c r="AD7" s="77"/>
-      <c r="AE7" s="72"/>
-      <c r="AF7" s="73"/>
-      <c r="AG7" s="101"/>
-      <c r="AH7" s="102"/>
+      <c r="A7" s="108"/>
+      <c r="B7" s="109"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="78"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="78"/>
+      <c r="M7" s="73"/>
+      <c r="N7" s="78"/>
+      <c r="O7" s="73"/>
+      <c r="P7" s="78"/>
+      <c r="Q7" s="73"/>
+      <c r="R7" s="78"/>
+      <c r="S7" s="88"/>
+      <c r="T7" s="89"/>
+      <c r="U7" s="73"/>
+      <c r="V7" s="74"/>
+      <c r="W7" s="77"/>
+      <c r="X7" s="78"/>
+      <c r="Y7" s="73"/>
+      <c r="Z7" s="78"/>
+      <c r="AA7" s="73"/>
+      <c r="AB7" s="74"/>
+      <c r="AC7" s="95"/>
+      <c r="AD7" s="78"/>
+      <c r="AE7" s="73"/>
+      <c r="AF7" s="74"/>
+      <c r="AG7" s="102"/>
+      <c r="AH7" s="103"/>
     </row>
     <row r="8" ht="35.25">
-      <c r="A8" s="109"/>
-      <c r="B8" s="110"/>
-      <c r="C8" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="12" t="s">
+      <c r="A8" s="110"/>
+      <c r="B8" s="111"/>
+      <c r="C8" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="12" t="s">
+      <c r="D8" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="12" t="s">
+      <c r="F8" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="I8" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="J8" s="12" t="s">
+      <c r="H8" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="K8" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="L8" s="12" t="s">
+      <c r="J8" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="M8" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="N8" s="12" t="s">
+      <c r="L8" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="M8" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="O8" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="P8" s="12" t="s">
+      <c r="N8" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="O8" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="Q8" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="R8" s="12" t="s">
+      <c r="P8" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q8" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="S8" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="T8" s="12" t="s">
+      <c r="R8" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="S8" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="U8" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="V8" s="12" t="s">
+      <c r="T8" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="U8" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="W8" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="X8" s="12" t="s">
+      <c r="V8" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="W8" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="Y8" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z8" s="12" t="s">
+      <c r="X8" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y8" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="AA8" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB8" s="12" t="s">
+      <c r="Z8" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA8" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="AC8" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD8" s="12" t="s">
+      <c r="AB8" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC8" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="AE8" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF8" s="12" t="s">
+      <c r="AD8" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE8" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="AG8" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="AH8" s="12" t="s">
+      <c r="AF8" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG8" s="12" t="s">
         <v>30</v>
+      </c>
+      <c r="AH8" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="119">
+        <v>1</v>
+      </c>
+      <c r="B9" s="119" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="120">
+        <v>0</v>
+      </c>
+      <c r="D9" s="120">
+        <v>0</v>
+      </c>
+      <c r="E9" s="120">
+        <v>0</v>
+      </c>
+      <c r="F9" s="120">
+        <v>0</v>
+      </c>
+      <c r="G9" s="120">
+        <v>0</v>
+      </c>
+      <c r="H9" s="120">
+        <v>0</v>
+      </c>
+      <c r="I9" s="120">
+        <v>0</v>
+      </c>
+      <c r="J9" s="120">
+        <v>0</v>
+      </c>
+      <c r="K9" s="120">
+        <v>0</v>
+      </c>
+      <c r="L9" s="120">
+        <v>0</v>
+      </c>
+      <c r="M9" s="120">
+        <v>0</v>
+      </c>
+      <c r="N9" s="120">
+        <v>0</v>
+      </c>
+      <c r="O9" s="120">
+        <v>0</v>
+      </c>
+      <c r="P9" s="120">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="120">
+        <v>0</v>
+      </c>
+      <c r="R9" s="120">
+        <v>0</v>
+      </c>
+      <c r="S9" s="120">
+        <v>0</v>
+      </c>
+      <c r="T9" s="120">
+        <v>0</v>
+      </c>
+      <c r="U9" s="120">
+        <v>0</v>
+      </c>
+      <c r="V9" s="120">
+        <v>0</v>
+      </c>
+      <c r="W9" s="120">
+        <v>0</v>
+      </c>
+      <c r="X9" s="120">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="120">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="120">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="120">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="120">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="120">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="120">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="120">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="120">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="120">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="120">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="118">
-        <v>1</v>
-      </c>
-      <c r="B10" s="118" t="s">
-        <v>31</v>
-      </c>
       <c r="C10" s="119">
-        <v>0</v>
-      </c>
-      <c r="D10" s="119">
-        <v>0</v>
-      </c>
-      <c r="E10" s="119">
-        <v>0</v>
-      </c>
-      <c r="F10" s="119">
-        <v>0</v>
-      </c>
-      <c r="G10" s="119">
-        <v>0</v>
-      </c>
-      <c r="H10" s="119">
-        <v>0</v>
-      </c>
-      <c r="I10" s="119">
-        <v>0</v>
-      </c>
-      <c r="J10" s="119">
-        <v>0</v>
-      </c>
-      <c r="K10" s="119">
-        <v>0</v>
-      </c>
-      <c r="L10" s="119">
-        <v>0</v>
-      </c>
-      <c r="M10" s="119">
-        <v>0</v>
-      </c>
-      <c r="N10" s="119">
-        <v>0</v>
-      </c>
-      <c r="O10" s="119">
-        <v>0</v>
-      </c>
-      <c r="P10" s="119">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="119">
-        <v>0</v>
-      </c>
-      <c r="R10" s="119">
-        <v>0</v>
-      </c>
-      <c r="S10" s="119">
-        <v>0</v>
-      </c>
-      <c r="T10" s="119">
-        <v>0</v>
-      </c>
-      <c r="U10" s="119">
-        <v>0</v>
-      </c>
-      <c r="V10" s="119">
-        <v>0</v>
-      </c>
-      <c r="W10" s="119">
-        <v>0</v>
-      </c>
-      <c r="X10" s="119">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="119">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="119">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="119">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="119">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="119">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="119">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="119">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="119">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="119">
-        <v>0</v>
-      </c>
-      <c r="AH10" s="119">
+        <v>2</v>
+      </c>
+      <c r="D10" s="119" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="120">
+        <v>0</v>
+      </c>
+      <c r="F10" s="120">
+        <v>0</v>
+      </c>
+      <c r="G10" s="120">
+        <v>0</v>
+      </c>
+      <c r="H10" s="120">
+        <v>0</v>
+      </c>
+      <c r="I10" s="120">
+        <v>0</v>
+      </c>
+      <c r="J10" s="120">
+        <v>0</v>
+      </c>
+      <c r="K10" s="120">
+        <v>0</v>
+      </c>
+      <c r="L10" s="120">
+        <v>0</v>
+      </c>
+      <c r="M10" s="120">
+        <v>0</v>
+      </c>
+      <c r="N10" s="120">
+        <v>0</v>
+      </c>
+      <c r="O10" s="120">
+        <v>0</v>
+      </c>
+      <c r="P10" s="120">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="120">
+        <v>0</v>
+      </c>
+      <c r="R10" s="120">
+        <v>0</v>
+      </c>
+      <c r="S10" s="120">
+        <v>0</v>
+      </c>
+      <c r="T10" s="120">
+        <v>0</v>
+      </c>
+      <c r="U10" s="120">
+        <v>0</v>
+      </c>
+      <c r="V10" s="120">
+        <v>0</v>
+      </c>
+      <c r="W10" s="120">
+        <v>0</v>
+      </c>
+      <c r="X10" s="120">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="120">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="120">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="120">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="120">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="120">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="120">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="120">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="120">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="120">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="120">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="120">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="120">
         <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="118">
-        <v>2</v>
-      </c>
-      <c r="B11" s="118" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="119">
-        <v>0</v>
-      </c>
-      <c r="D11" s="119">
-        <v>0</v>
-      </c>
       <c r="E11" s="119">
-        <v>0</v>
-      </c>
-      <c r="F11" s="119">
-        <v>0</v>
-      </c>
-      <c r="G11" s="119">
-        <v>0</v>
-      </c>
-      <c r="H11" s="119">
-        <v>0</v>
-      </c>
-      <c r="I11" s="119">
-        <v>0</v>
-      </c>
-      <c r="J11" s="119">
-        <v>0</v>
-      </c>
-      <c r="K11" s="119">
-        <v>0</v>
-      </c>
-      <c r="L11" s="119">
-        <v>0</v>
-      </c>
-      <c r="M11" s="119">
-        <v>0</v>
-      </c>
-      <c r="N11" s="119">
-        <v>0</v>
-      </c>
-      <c r="O11" s="119">
-        <v>0</v>
-      </c>
-      <c r="P11" s="119">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="119">
-        <v>0</v>
-      </c>
-      <c r="R11" s="119">
-        <v>0</v>
-      </c>
-      <c r="S11" s="119">
-        <v>0</v>
-      </c>
-      <c r="T11" s="119">
-        <v>0</v>
-      </c>
-      <c r="U11" s="119">
-        <v>0</v>
-      </c>
-      <c r="V11" s="119">
-        <v>0</v>
-      </c>
-      <c r="W11" s="119">
-        <v>0</v>
-      </c>
-      <c r="X11" s="119">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="119">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="119">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="119">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="119">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="119">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="119">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="119">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="119">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="119">
-        <v>0</v>
-      </c>
-      <c r="AH11" s="119">
+        <v>3</v>
+      </c>
+      <c r="F11" s="119" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="120">
+        <v>0</v>
+      </c>
+      <c r="H11" s="120">
+        <v>0</v>
+      </c>
+      <c r="I11" s="120">
+        <v>0</v>
+      </c>
+      <c r="J11" s="120">
+        <v>0</v>
+      </c>
+      <c r="K11" s="120">
+        <v>0</v>
+      </c>
+      <c r="L11" s="120">
+        <v>0</v>
+      </c>
+      <c r="M11" s="120">
+        <v>0</v>
+      </c>
+      <c r="N11" s="120">
+        <v>0</v>
+      </c>
+      <c r="O11" s="120">
+        <v>0</v>
+      </c>
+      <c r="P11" s="120">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="120">
+        <v>0</v>
+      </c>
+      <c r="R11" s="120">
+        <v>0</v>
+      </c>
+      <c r="S11" s="120">
+        <v>0</v>
+      </c>
+      <c r="T11" s="120">
+        <v>0</v>
+      </c>
+      <c r="U11" s="120">
+        <v>0</v>
+      </c>
+      <c r="V11" s="120">
+        <v>0</v>
+      </c>
+      <c r="W11" s="120">
+        <v>0</v>
+      </c>
+      <c r="X11" s="120">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="120">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="120">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="120">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="120">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="120">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="120">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="120">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="120">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="120">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="120">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="120">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="120">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="120">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="120">
         <v>0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="118">
-        <v>3</v>
-      </c>
-      <c r="B12" s="118" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="119">
-        <v>0</v>
-      </c>
-      <c r="D12" s="119">
-        <v>0</v>
-      </c>
-      <c r="E12" s="119">
-        <v>0</v>
-      </c>
-      <c r="F12" s="119">
-        <v>0</v>
-      </c>
       <c r="G12" s="119">
-        <v>0</v>
-      </c>
-      <c r="H12" s="119">
-        <v>0</v>
-      </c>
-      <c r="I12" s="119">
-        <v>0</v>
-      </c>
-      <c r="J12" s="119">
-        <v>0</v>
-      </c>
-      <c r="K12" s="119">
-        <v>0</v>
-      </c>
-      <c r="L12" s="119">
-        <v>0</v>
-      </c>
-      <c r="M12" s="119">
-        <v>0</v>
-      </c>
-      <c r="N12" s="119">
-        <v>0</v>
-      </c>
-      <c r="O12" s="119">
-        <v>0</v>
-      </c>
-      <c r="P12" s="119">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="119">
-        <v>0</v>
-      </c>
-      <c r="R12" s="119">
-        <v>0</v>
-      </c>
-      <c r="S12" s="119">
-        <v>0</v>
-      </c>
-      <c r="T12" s="119">
-        <v>0</v>
-      </c>
-      <c r="U12" s="119">
-        <v>0</v>
-      </c>
-      <c r="V12" s="119">
-        <v>0</v>
-      </c>
-      <c r="W12" s="119">
-        <v>0</v>
-      </c>
-      <c r="X12" s="119">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="119">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="119">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="119">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="119">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="119">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="119">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="119">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="119">
-        <v>0</v>
-      </c>
-      <c r="AG12" s="119">
-        <v>0</v>
-      </c>
-      <c r="AH12" s="119">
+        <v>4</v>
+      </c>
+      <c r="H12" s="119" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="120">
+        <v>0</v>
+      </c>
+      <c r="J12" s="120">
+        <v>0</v>
+      </c>
+      <c r="K12" s="120">
+        <v>0</v>
+      </c>
+      <c r="L12" s="120">
+        <v>0</v>
+      </c>
+      <c r="M12" s="120">
+        <v>0</v>
+      </c>
+      <c r="N12" s="120" t="s">
+        <v>35</v>
+      </c>
+      <c r="O12" s="120">
+        <v>0</v>
+      </c>
+      <c r="P12" s="120" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q12" s="120">
+        <v>0</v>
+      </c>
+      <c r="R12" s="120">
+        <v>0</v>
+      </c>
+      <c r="S12" s="120">
+        <v>0</v>
+      </c>
+      <c r="T12" s="120">
+        <v>0</v>
+      </c>
+      <c r="U12" s="120">
+        <v>0</v>
+      </c>
+      <c r="V12" s="120">
+        <v>0</v>
+      </c>
+      <c r="W12" s="120">
+        <v>0</v>
+      </c>
+      <c r="X12" s="120">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="120">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="120">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="120">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="120">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="120">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="120">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="120">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="120">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="120">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="120">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="120">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="120">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="120">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="120">
+        <v>0</v>
+      </c>
+      <c r="AM12" s="120">
+        <v>0</v>
+      </c>
+      <c r="AN12" s="120">
         <v>0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="118">
-        <v>4</v>
-      </c>
-      <c r="B13" s="118" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="119">
-        <v>0</v>
-      </c>
-      <c r="D13" s="119">
-        <v>0</v>
-      </c>
-      <c r="E13" s="119">
-        <v>0</v>
-      </c>
-      <c r="F13" s="119">
-        <v>0</v>
-      </c>
-      <c r="G13" s="119">
-        <v>0</v>
-      </c>
-      <c r="H13" s="119" t="s">
-        <v>34</v>
-      </c>
       <c r="I13" s="119">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J13" s="119" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" s="120">
+        <v>0</v>
+      </c>
+      <c r="L13" s="120">
+        <v>0</v>
+      </c>
+      <c r="M13" s="120">
+        <v>0</v>
+      </c>
+      <c r="N13" s="120">
+        <v>0</v>
+      </c>
+      <c r="O13" s="120">
+        <v>0</v>
+      </c>
+      <c r="P13" s="120" t="s">
         <v>35</v>
       </c>
-      <c r="K13" s="119">
-        <v>0</v>
-      </c>
-      <c r="L13" s="119">
-        <v>0</v>
-      </c>
-      <c r="M13" s="119">
-        <v>0</v>
-      </c>
-      <c r="N13" s="119">
-        <v>0</v>
-      </c>
-      <c r="O13" s="119">
-        <v>0</v>
-      </c>
-      <c r="P13" s="119">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="119">
-        <v>0</v>
-      </c>
-      <c r="R13" s="119">
-        <v>0</v>
-      </c>
-      <c r="S13" s="119">
-        <v>0</v>
-      </c>
-      <c r="T13" s="119">
-        <v>0</v>
-      </c>
-      <c r="U13" s="119">
-        <v>0</v>
-      </c>
-      <c r="V13" s="119">
-        <v>0</v>
-      </c>
-      <c r="W13" s="119">
-        <v>0</v>
-      </c>
-      <c r="X13" s="119">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="119">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="119">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="119">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="119">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="119">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="119">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="119">
-        <v>0</v>
-      </c>
-      <c r="AF13" s="119">
-        <v>0</v>
-      </c>
-      <c r="AG13" s="119">
-        <v>0</v>
-      </c>
-      <c r="AH13" s="119">
+      <c r="Q13" s="120">
+        <v>0</v>
+      </c>
+      <c r="R13" s="120" t="s">
+        <v>36</v>
+      </c>
+      <c r="S13" s="120">
+        <v>0</v>
+      </c>
+      <c r="T13" s="120">
+        <v>0</v>
+      </c>
+      <c r="U13" s="120">
+        <v>0</v>
+      </c>
+      <c r="V13" s="120">
+        <v>0</v>
+      </c>
+      <c r="W13" s="120">
+        <v>0</v>
+      </c>
+      <c r="X13" s="120">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="120">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="120">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="120">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="120">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="120">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="120">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="120">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="120">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="120">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="120">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="120">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="120">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="120">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="120">
+        <v>0</v>
+      </c>
+      <c r="AM13" s="120">
+        <v>0</v>
+      </c>
+      <c r="AN13" s="120">
+        <v>0</v>
+      </c>
+      <c r="AO13" s="120">
+        <v>0</v>
+      </c>
+      <c r="AP13" s="120">
         <v>0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="118">
-        <v>5</v>
-      </c>
-      <c r="B14" s="118" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="119">
-        <v>0</v>
-      </c>
-      <c r="D14" s="119">
-        <v>0</v>
-      </c>
-      <c r="E14" s="119">
-        <v>0</v>
-      </c>
-      <c r="F14" s="119">
-        <v>0</v>
-      </c>
-      <c r="G14" s="119">
-        <v>0</v>
-      </c>
-      <c r="H14" s="119" t="s">
-        <v>34</v>
-      </c>
-      <c r="I14" s="119">
-        <v>0</v>
-      </c>
-      <c r="J14" s="119" t="s">
-        <v>35</v>
-      </c>
       <c r="K14" s="119">
-        <v>0</v>
-      </c>
-      <c r="L14" s="119">
-        <v>0</v>
-      </c>
-      <c r="M14" s="119">
-        <v>0</v>
-      </c>
-      <c r="N14" s="119">
-        <v>0</v>
-      </c>
-      <c r="O14" s="119">
-        <v>0</v>
-      </c>
-      <c r="P14" s="119">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="119">
-        <v>0</v>
-      </c>
-      <c r="R14" s="119">
-        <v>0</v>
-      </c>
-      <c r="S14" s="119">
-        <v>0</v>
-      </c>
-      <c r="T14" s="119">
-        <v>0</v>
-      </c>
-      <c r="U14" s="119">
-        <v>0</v>
-      </c>
-      <c r="V14" s="119">
-        <v>0</v>
-      </c>
-      <c r="W14" s="119">
-        <v>0</v>
-      </c>
-      <c r="X14" s="119">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="119">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="119">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="119">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="119">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="119">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="119">
-        <v>0</v>
-      </c>
-      <c r="AE14" s="119">
-        <v>0</v>
-      </c>
-      <c r="AF14" s="119">
-        <v>0</v>
-      </c>
-      <c r="AG14" s="119">
-        <v>0</v>
-      </c>
-      <c r="AH14" s="119">
+        <v>6</v>
+      </c>
+      <c r="L14" s="119" t="s">
+        <v>37</v>
+      </c>
+      <c r="M14" s="120">
+        <v>0</v>
+      </c>
+      <c r="N14" s="120">
+        <v>0</v>
+      </c>
+      <c r="O14" s="120">
+        <v>0</v>
+      </c>
+      <c r="P14" s="120">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="120">
+        <v>0</v>
+      </c>
+      <c r="R14" s="120">
+        <v>0</v>
+      </c>
+      <c r="S14" s="120">
+        <v>0</v>
+      </c>
+      <c r="T14" s="120">
+        <v>0</v>
+      </c>
+      <c r="U14" s="120">
+        <v>0</v>
+      </c>
+      <c r="V14" s="120">
+        <v>0</v>
+      </c>
+      <c r="W14" s="120">
+        <v>0</v>
+      </c>
+      <c r="X14" s="120">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="120">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="120">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="120">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="120">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="120">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="120">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="120">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="120">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="120">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="120">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="120">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="120">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="120">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="120">
+        <v>0</v>
+      </c>
+      <c r="AM14" s="120">
+        <v>0</v>
+      </c>
+      <c r="AN14" s="120">
+        <v>0</v>
+      </c>
+      <c r="AO14" s="120">
+        <v>0</v>
+      </c>
+      <c r="AP14" s="120">
+        <v>0</v>
+      </c>
+      <c r="AQ14" s="120">
+        <v>0</v>
+      </c>
+      <c r="AR14" s="120">
         <v>0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="118">
-        <v>6</v>
-      </c>
-      <c r="B15" s="118" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="119">
-        <v>0</v>
-      </c>
-      <c r="D15" s="119">
-        <v>0</v>
-      </c>
-      <c r="E15" s="119">
-        <v>0</v>
-      </c>
-      <c r="F15" s="119">
-        <v>0</v>
-      </c>
-      <c r="G15" s="119">
-        <v>0</v>
-      </c>
-      <c r="H15" s="119">
-        <v>0</v>
-      </c>
-      <c r="I15" s="119">
-        <v>0</v>
-      </c>
-      <c r="J15" s="119">
-        <v>0</v>
-      </c>
-      <c r="K15" s="119">
-        <v>0</v>
-      </c>
-      <c r="L15" s="119">
-        <v>0</v>
-      </c>
-      <c r="M15" s="119">
-        <v>0</v>
-      </c>
-      <c r="N15" s="119">
-        <v>0</v>
-      </c>
-      <c r="O15" s="119">
-        <v>0</v>
-      </c>
-      <c r="P15" s="119">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="119">
-        <v>0</v>
-      </c>
-      <c r="R15" s="119">
-        <v>0</v>
-      </c>
-      <c r="S15" s="119">
-        <v>0</v>
-      </c>
-      <c r="T15" s="119">
-        <v>0</v>
-      </c>
-      <c r="U15" s="119">
-        <v>0</v>
-      </c>
-      <c r="V15" s="119">
-        <v>0</v>
-      </c>
-      <c r="W15" s="119">
-        <v>0</v>
-      </c>
-      <c r="X15" s="119">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="119">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="119">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="119">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="119">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="119">
-        <v>0</v>
-      </c>
-      <c r="AD15" s="119">
-        <v>0</v>
-      </c>
-      <c r="AE15" s="119">
-        <v>0</v>
-      </c>
-      <c r="AF15" s="119">
-        <v>0</v>
-      </c>
-      <c r="AG15" s="119">
-        <v>0</v>
-      </c>
-      <c r="AH15" s="119">
-        <v>0</v>
+      <c r="A15" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15" s="120" t="s">
+        <v>25</v>
+      </c>
+      <c r="L15" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="M15" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N15" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="O15" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="P15" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q15" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="R15" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="S15" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="T15" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="U15" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="V15" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="W15" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="X15" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y15" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z15" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA15" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB15" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC15" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD15" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE15" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF15" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG15" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
